--- a/data/pca/factorExposure/factorExposure_2016-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009192597830928703</v>
+        <v>-0.01257411746410971</v>
       </c>
       <c r="C2">
-        <v>-0.05643164987946838</v>
+        <v>0.03941059435429065</v>
       </c>
       <c r="D2">
-        <v>0.04329741330643212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05541798419035657</v>
+      </c>
+      <c r="E2">
+        <v>-0.08926229672422424</v>
+      </c>
+      <c r="F2">
+        <v>-0.07952879425763172</v>
+      </c>
+      <c r="G2">
+        <v>-0.03788124168965162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04092333742332146</v>
+        <v>-0.02565072899875796</v>
       </c>
       <c r="C3">
-        <v>-0.117511845132434</v>
+        <v>0.06560825830860301</v>
       </c>
       <c r="D3">
-        <v>0.08667573207063749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07201453711067372</v>
+      </c>
+      <c r="E3">
+        <v>-0.07006527875300496</v>
+      </c>
+      <c r="F3">
+        <v>0.02851681915282681</v>
+      </c>
+      <c r="G3">
+        <v>-0.0524961196339549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06136205606264147</v>
+        <v>-0.05926493485325364</v>
       </c>
       <c r="C4">
-        <v>-0.06150481108323023</v>
+        <v>0.06295534552166177</v>
       </c>
       <c r="D4">
-        <v>0.02444549891956506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04944311838218111</v>
+      </c>
+      <c r="E4">
+        <v>-0.08936312572595828</v>
+      </c>
+      <c r="F4">
+        <v>-0.036081956405657</v>
+      </c>
+      <c r="G4">
+        <v>-0.09745696891485676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03981178840654744</v>
+        <v>-0.0351313377834267</v>
       </c>
       <c r="C6">
-        <v>-0.03623127739015367</v>
+        <v>0.02678248985952194</v>
       </c>
       <c r="D6">
-        <v>0.02560096863249366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05699582249205437</v>
+      </c>
+      <c r="E6">
+        <v>-0.08917373114574187</v>
+      </c>
+      <c r="F6">
+        <v>-0.02332728290331742</v>
+      </c>
+      <c r="G6">
+        <v>-0.07027439100249749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02570946071312978</v>
+        <v>-0.0204661982650655</v>
       </c>
       <c r="C7">
-        <v>-0.04232111246357526</v>
+        <v>0.03642339010321377</v>
       </c>
       <c r="D7">
-        <v>-0.004714018828977814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0361519989299809</v>
+      </c>
+      <c r="E7">
+        <v>-0.06515183638110893</v>
+      </c>
+      <c r="F7">
+        <v>-0.06600543830868001</v>
+      </c>
+      <c r="G7">
+        <v>-0.1021493790555083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006101951294657819</v>
+        <v>-0.004302968450223104</v>
       </c>
       <c r="C8">
-        <v>-0.03764109851745306</v>
+        <v>0.03285281198604713</v>
       </c>
       <c r="D8">
-        <v>0.02861397066142354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03175812088800823</v>
+      </c>
+      <c r="E8">
+        <v>-0.06130868485391306</v>
+      </c>
+      <c r="F8">
+        <v>-0.01563207878634843</v>
+      </c>
+      <c r="G8">
+        <v>-0.04089554529694543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03470924712128223</v>
+        <v>-0.03797441518924054</v>
       </c>
       <c r="C9">
-        <v>-0.04981559846806446</v>
+        <v>0.05100594534551899</v>
       </c>
       <c r="D9">
-        <v>0.01078481300853787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03538514349619917</v>
+      </c>
+      <c r="E9">
+        <v>-0.07467978672791931</v>
+      </c>
+      <c r="F9">
+        <v>-0.04836417603060734</v>
+      </c>
+      <c r="G9">
+        <v>-0.08999317470279525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07262419644643819</v>
+        <v>-0.09891446037989517</v>
       </c>
       <c r="C10">
-        <v>0.1862785903427664</v>
+        <v>-0.1971162219571841</v>
       </c>
       <c r="D10">
-        <v>-0.008483178298001819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01442372683334743</v>
+      </c>
+      <c r="E10">
+        <v>-0.03724834053580727</v>
+      </c>
+      <c r="F10">
+        <v>-0.01683492439887016</v>
+      </c>
+      <c r="G10">
+        <v>-0.03369339687999893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04226622243788567</v>
+        <v>-0.03757535742249726</v>
       </c>
       <c r="C11">
-        <v>-0.05119212000084854</v>
+        <v>0.04746992666548374</v>
       </c>
       <c r="D11">
-        <v>0.0133075701836727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03094730004075958</v>
+      </c>
+      <c r="E11">
+        <v>-0.02795056636775161</v>
+      </c>
+      <c r="F11">
+        <v>-0.03722239774844546</v>
+      </c>
+      <c r="G11">
+        <v>-0.07251054976216587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04473948451591278</v>
+        <v>-0.03974187977439688</v>
       </c>
       <c r="C12">
-        <v>-0.04676642026947796</v>
+        <v>0.04520234153895983</v>
       </c>
       <c r="D12">
-        <v>0.002568670567264147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02589813119279485</v>
+      </c>
+      <c r="E12">
+        <v>-0.03534352855587184</v>
+      </c>
+      <c r="F12">
+        <v>-0.03988569772050918</v>
+      </c>
+      <c r="G12">
+        <v>-0.06992613732460431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01317101234058852</v>
+        <v>-0.01118731768389825</v>
       </c>
       <c r="C13">
-        <v>-0.05540466762752646</v>
+        <v>0.04209435626648858</v>
       </c>
       <c r="D13">
-        <v>0.006708039055340888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03986934525757865</v>
+      </c>
+      <c r="E13">
+        <v>-0.1018597145569585</v>
+      </c>
+      <c r="F13">
+        <v>-0.05547789019937952</v>
+      </c>
+      <c r="G13">
+        <v>-0.1010163324059603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009102609776650991</v>
+        <v>-0.005408456975648845</v>
       </c>
       <c r="C14">
-        <v>-0.0415590859585489</v>
+        <v>0.03258677956352277</v>
       </c>
       <c r="D14">
-        <v>-0.009454023925668452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0222932609327299</v>
+      </c>
+      <c r="E14">
+        <v>-0.05033345175808838</v>
+      </c>
+      <c r="F14">
+        <v>-0.07386446086338305</v>
+      </c>
+      <c r="G14">
+        <v>-0.08766217269604883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001227027161580423</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005458619089038027</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00707295595081599</v>
+      </c>
+      <c r="E15">
+        <v>-0.00474074843418871</v>
+      </c>
+      <c r="F15">
+        <v>-0.005907415936631744</v>
+      </c>
+      <c r="G15">
+        <v>-0.007995376383032493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03934496614572353</v>
+        <v>-0.03520622237863285</v>
       </c>
       <c r="C16">
-        <v>-0.04905539490669166</v>
+        <v>0.04449879688548772</v>
       </c>
       <c r="D16">
-        <v>0.005012142398493053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02427396565110028</v>
+      </c>
+      <c r="E16">
+        <v>-0.04190407783989056</v>
+      </c>
+      <c r="F16">
+        <v>-0.04827741563695132</v>
+      </c>
+      <c r="G16">
+        <v>-0.0611831605148422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0247995430294105</v>
+        <v>-0.01826821269671371</v>
       </c>
       <c r="C19">
-        <v>-0.06038812786166557</v>
+        <v>0.04350819934518112</v>
       </c>
       <c r="D19">
-        <v>0.08896301182787837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08951427032160626</v>
+      </c>
+      <c r="E19">
+        <v>-0.1137378274120892</v>
+      </c>
+      <c r="F19">
+        <v>-0.06111742210420656</v>
+      </c>
+      <c r="G19">
+        <v>-0.05217931513571861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01752258658208074</v>
+        <v>-0.01408307849067587</v>
       </c>
       <c r="C20">
-        <v>-0.04869648512500882</v>
+        <v>0.03901995594372477</v>
       </c>
       <c r="D20">
-        <v>0.008972704861496044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03022812795751403</v>
+      </c>
+      <c r="E20">
+        <v>-0.07846935141021512</v>
+      </c>
+      <c r="F20">
+        <v>-0.04732376954699934</v>
+      </c>
+      <c r="G20">
+        <v>-0.07244764420653652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01201116505576275</v>
+        <v>-0.01058409390663706</v>
       </c>
       <c r="C21">
-        <v>-0.0517556598811293</v>
+        <v>0.04072972472457429</v>
       </c>
       <c r="D21">
-        <v>0.03396874904472198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05443873734909759</v>
+      </c>
+      <c r="E21">
+        <v>-0.1215516768279192</v>
+      </c>
+      <c r="F21">
+        <v>-0.08081832317509087</v>
+      </c>
+      <c r="G21">
+        <v>-0.1129753941752184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001823137794490304</v>
+        <v>-0.00297211883973361</v>
       </c>
       <c r="C22">
-        <v>-0.00155306214488073</v>
+        <v>0.02693568412180588</v>
       </c>
       <c r="D22">
-        <v>0.004658298428391252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04224200431037343</v>
+      </c>
+      <c r="E22">
+        <v>-0.04464338710956647</v>
+      </c>
+      <c r="F22">
+        <v>0.01608297375998145</v>
+      </c>
+      <c r="G22">
+        <v>-0.05503215918895533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001830171586574494</v>
+        <v>-0.003058947517286023</v>
       </c>
       <c r="C23">
-        <v>-0.001565764306582863</v>
+        <v>0.02707537411370708</v>
       </c>
       <c r="D23">
-        <v>0.004655320032516276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04178930958166462</v>
+      </c>
+      <c r="E23">
+        <v>-0.04489420401546695</v>
+      </c>
+      <c r="F23">
+        <v>0.01636394639243711</v>
+      </c>
+      <c r="G23">
+        <v>-0.05500235522411426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0361663674555362</v>
+        <v>-0.03544785768147045</v>
       </c>
       <c r="C24">
-        <v>-0.05000969170567941</v>
+        <v>0.05188136139287696</v>
       </c>
       <c r="D24">
-        <v>0.007572378910448949</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0238773954506704</v>
+      </c>
+      <c r="E24">
+        <v>-0.04336322348121471</v>
+      </c>
+      <c r="F24">
+        <v>-0.04889094405616273</v>
+      </c>
+      <c r="G24">
+        <v>-0.07428653722656205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04936002328769006</v>
+        <v>-0.04455352799119126</v>
       </c>
       <c r="C25">
-        <v>-0.06037609350362265</v>
+        <v>0.05554214541032323</v>
       </c>
       <c r="D25">
-        <v>-0.004169103507360414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02219917608993995</v>
+      </c>
+      <c r="E25">
+        <v>-0.03394896299444644</v>
+      </c>
+      <c r="F25">
+        <v>-0.03944419258955843</v>
+      </c>
+      <c r="G25">
+        <v>-0.08386855386602105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01700588599912462</v>
+        <v>-0.01531496285149674</v>
       </c>
       <c r="C26">
-        <v>-0.01762722599425062</v>
+        <v>0.01682271752326248</v>
       </c>
       <c r="D26">
-        <v>-0.0009079747482197613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02271039129048298</v>
+      </c>
+      <c r="E26">
+        <v>-0.05336918817985189</v>
+      </c>
+      <c r="F26">
+        <v>-0.05735895549242916</v>
+      </c>
+      <c r="G26">
+        <v>-0.05510344311146839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08832760952634063</v>
+        <v>-0.1351535867598264</v>
       </c>
       <c r="C28">
-        <v>0.2480581857543745</v>
+        <v>-0.2551600475409437</v>
       </c>
       <c r="D28">
-        <v>-0.01055487419568202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03085007275033067</v>
+      </c>
+      <c r="E28">
+        <v>-0.0545659725337923</v>
+      </c>
+      <c r="F28">
+        <v>-0.02524894259862987</v>
+      </c>
+      <c r="G28">
+        <v>-0.05486618568627253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007748715135823294</v>
+        <v>-0.005819805115671857</v>
       </c>
       <c r="C29">
-        <v>-0.03386747266586219</v>
+        <v>0.02920965890892999</v>
       </c>
       <c r="D29">
-        <v>-0.01700749518547373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01432929338040345</v>
+      </c>
+      <c r="E29">
+        <v>-0.0489926156878087</v>
+      </c>
+      <c r="F29">
+        <v>-0.06251034064746253</v>
+      </c>
+      <c r="G29">
+        <v>-0.09128541309000851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04556322055330251</v>
+        <v>-0.04198715744009615</v>
       </c>
       <c r="C30">
-        <v>-0.05474549930801306</v>
+        <v>0.05657803701614753</v>
       </c>
       <c r="D30">
-        <v>0.07324807168594387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09949522074160158</v>
+      </c>
+      <c r="E30">
+        <v>-0.08183858630631954</v>
+      </c>
+      <c r="F30">
+        <v>-0.06681899067647988</v>
+      </c>
+      <c r="G30">
+        <v>-0.07287657456117941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0593367110860242</v>
+        <v>-0.05802594110370748</v>
       </c>
       <c r="C31">
-        <v>-0.04477647803276935</v>
+        <v>0.06069759477537064</v>
       </c>
       <c r="D31">
-        <v>-0.04216642455198675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01877826672590354</v>
+      </c>
+      <c r="E31">
+        <v>-0.06748329580912396</v>
+      </c>
+      <c r="F31">
+        <v>-0.02221599577390719</v>
+      </c>
+      <c r="G31">
+        <v>-0.08910425012973043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0009058702555812539</v>
+        <v>-0.004956634572636099</v>
       </c>
       <c r="C32">
-        <v>-0.0450502340700047</v>
+        <v>0.03450609958093563</v>
       </c>
       <c r="D32">
-        <v>0.04829536041754671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05199011239606733</v>
+      </c>
+      <c r="E32">
+        <v>-0.05685663218986937</v>
+      </c>
+      <c r="F32">
+        <v>-0.06743745281346891</v>
+      </c>
+      <c r="G32">
+        <v>-0.07349335413263151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03161035457305164</v>
+        <v>-0.02675752912172375</v>
       </c>
       <c r="C33">
-        <v>-0.06030655561173368</v>
+        <v>0.05288580930454094</v>
       </c>
       <c r="D33">
-        <v>0.03609838227586026</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06723728992398072</v>
+      </c>
+      <c r="E33">
+        <v>-0.09312085901744097</v>
+      </c>
+      <c r="F33">
+        <v>-0.06531285662678592</v>
+      </c>
+      <c r="G33">
+        <v>-0.1037576752927338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04665683841908673</v>
+        <v>-0.04194078369986286</v>
       </c>
       <c r="C34">
-        <v>-0.06467914529597429</v>
+        <v>0.06279969527348908</v>
       </c>
       <c r="D34">
-        <v>0.01550941661894884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03693026422110635</v>
+      </c>
+      <c r="E34">
+        <v>-0.01653273164164573</v>
+      </c>
+      <c r="F34">
+        <v>-0.05226100543119377</v>
+      </c>
+      <c r="G34">
+        <v>-0.07680437419433829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01659839342170704</v>
+        <v>-0.01441050916977772</v>
       </c>
       <c r="C36">
-        <v>-0.01745961812164563</v>
+        <v>0.01324302511916503</v>
       </c>
       <c r="D36">
-        <v>-0.005373261037085479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02108287401404575</v>
+      </c>
+      <c r="E36">
+        <v>-0.06070733845793377</v>
+      </c>
+      <c r="F36">
+        <v>-0.04643497224073274</v>
+      </c>
+      <c r="G36">
+        <v>-0.07209877944530561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02868085304104058</v>
+        <v>-0.02258695846740695</v>
       </c>
       <c r="C38">
-        <v>-0.03383105192908429</v>
+        <v>0.02487109641104962</v>
       </c>
       <c r="D38">
-        <v>-0.01509876823706136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01991697278201535</v>
+      </c>
+      <c r="E38">
+        <v>-0.0536648620570118</v>
+      </c>
+      <c r="F38">
+        <v>-0.03813510621251733</v>
+      </c>
+      <c r="G38">
+        <v>-0.04841623880279242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04724908318280544</v>
+        <v>-0.04112610367565413</v>
       </c>
       <c r="C39">
-        <v>-0.06336728782004752</v>
+        <v>0.06278907992417813</v>
       </c>
       <c r="D39">
-        <v>0.01629457196355474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0489031604233217</v>
+      </c>
+      <c r="E39">
+        <v>-0.05036222615962489</v>
+      </c>
+      <c r="F39">
+        <v>-0.07119594175050656</v>
+      </c>
+      <c r="G39">
+        <v>-0.07078741888102029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01144634966229274</v>
+        <v>-0.01349395780865767</v>
       </c>
       <c r="C40">
-        <v>-0.05161470905487293</v>
+        <v>0.03748977290668561</v>
       </c>
       <c r="D40">
-        <v>0.01790822948845608</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02650166411423461</v>
+      </c>
+      <c r="E40">
+        <v>-0.0864165714665419</v>
+      </c>
+      <c r="F40">
+        <v>-0.02933601657523322</v>
+      </c>
+      <c r="G40">
+        <v>-0.1093025917566938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02189445929368553</v>
+        <v>-0.01870928586971339</v>
       </c>
       <c r="C41">
-        <v>-0.01561193164682703</v>
+        <v>0.01069503121953275</v>
       </c>
       <c r="D41">
-        <v>-0.0009353320445088536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01306722987278482</v>
+      </c>
+      <c r="E41">
+        <v>-0.0617890658893642</v>
+      </c>
+      <c r="F41">
+        <v>-0.0431619457683303</v>
+      </c>
+      <c r="G41">
+        <v>-0.0584323915399597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04143715216711606</v>
+        <v>-0.02987687767364913</v>
       </c>
       <c r="C43">
-        <v>-0.03284138851454959</v>
+        <v>0.02390075404919743</v>
       </c>
       <c r="D43">
-        <v>0.024977899161706</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0421739990448135</v>
+      </c>
+      <c r="E43">
+        <v>-0.07879296343657996</v>
+      </c>
+      <c r="F43">
+        <v>-0.03552503296502605</v>
+      </c>
+      <c r="G43">
+        <v>-0.08702824596276462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01407890724088817</v>
+        <v>-0.01534830054371979</v>
       </c>
       <c r="C44">
-        <v>-0.06798969630691346</v>
+        <v>0.04762557961405629</v>
       </c>
       <c r="D44">
-        <v>0.008926553433755379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03078998879717467</v>
+      </c>
+      <c r="E44">
+        <v>-0.08526254222027638</v>
+      </c>
+      <c r="F44">
+        <v>-0.0570925254733828</v>
+      </c>
+      <c r="G44">
+        <v>-0.05665133583560449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00959056500113796</v>
+        <v>-0.009894140264237294</v>
       </c>
       <c r="C46">
-        <v>-0.02957106667765936</v>
+        <v>0.02947377234881605</v>
       </c>
       <c r="D46">
-        <v>-0.01699718415413031</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009125618091816754</v>
+      </c>
+      <c r="E46">
+        <v>-0.05860865128462343</v>
+      </c>
+      <c r="F46">
+        <v>-0.07492181728003124</v>
+      </c>
+      <c r="G46">
+        <v>-0.09276911388663571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08795876532116118</v>
+        <v>-0.09090915770917306</v>
       </c>
       <c r="C47">
-        <v>-0.06968183273047292</v>
+        <v>0.07982783672535625</v>
       </c>
       <c r="D47">
-        <v>-0.04355467486863417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02669941622900109</v>
+      </c>
+      <c r="E47">
+        <v>-0.06640452532878528</v>
+      </c>
+      <c r="F47">
+        <v>-0.02098959395142609</v>
+      </c>
+      <c r="G47">
+        <v>-0.0798408199684891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0192049533590953</v>
+        <v>-0.01741268412243443</v>
       </c>
       <c r="C48">
-        <v>-0.0147806136331526</v>
+        <v>0.01560550179603761</v>
       </c>
       <c r="D48">
-        <v>-0.02105702416505033</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00873758996102012</v>
+      </c>
+      <c r="E48">
+        <v>-0.07219730446284429</v>
+      </c>
+      <c r="F48">
+        <v>-0.05963328549588693</v>
+      </c>
+      <c r="G48">
+        <v>-0.08166969530230878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0823290441644782</v>
+        <v>-0.07115769125541409</v>
       </c>
       <c r="C50">
-        <v>-0.08290440559513694</v>
+        <v>0.07510476619588864</v>
       </c>
       <c r="D50">
-        <v>-0.04207323911284862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01053568337300035</v>
+      </c>
+      <c r="E50">
+        <v>-0.07630287815000932</v>
+      </c>
+      <c r="F50">
+        <v>0.007887035366568929</v>
+      </c>
+      <c r="G50">
+        <v>-0.09579340388938649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01720537092099877</v>
+        <v>-0.01073208482957414</v>
       </c>
       <c r="C51">
-        <v>-0.04904548766384815</v>
+        <v>0.03167447211607992</v>
       </c>
       <c r="D51">
-        <v>0.03947648978615684</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05429061057822035</v>
+      </c>
+      <c r="E51">
+        <v>-0.05132828998331238</v>
+      </c>
+      <c r="F51">
+        <v>-0.06432848276705704</v>
+      </c>
+      <c r="G51">
+        <v>-0.06803316148946653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08382348720145773</v>
+        <v>-0.09661590939879901</v>
       </c>
       <c r="C53">
-        <v>-0.07579682903786673</v>
+        <v>0.08467373711546357</v>
       </c>
       <c r="D53">
-        <v>-0.061172087638108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06179858759450813</v>
+      </c>
+      <c r="E53">
+        <v>-0.06239796967850138</v>
+      </c>
+      <c r="F53">
+        <v>-0.01659005482451005</v>
+      </c>
+      <c r="G53">
+        <v>-0.0729445154841124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03460680103267283</v>
+        <v>-0.02819458749037337</v>
       </c>
       <c r="C54">
-        <v>-0.03970855654830711</v>
+        <v>0.03331586661882235</v>
       </c>
       <c r="D54">
-        <v>-0.004329915687495697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02216428641494938</v>
+      </c>
+      <c r="E54">
+        <v>-0.05893918542232101</v>
+      </c>
+      <c r="F54">
+        <v>-0.06551425253428812</v>
+      </c>
+      <c r="G54">
+        <v>-0.08786353350029434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07771106290243859</v>
+        <v>-0.08814381990350924</v>
       </c>
       <c r="C55">
-        <v>-0.05582568802426063</v>
+        <v>0.06809171631752227</v>
       </c>
       <c r="D55">
-        <v>-0.06612559576912033</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06235333005327027</v>
+      </c>
+      <c r="E55">
+        <v>-0.04268229123598103</v>
+      </c>
+      <c r="F55">
+        <v>-0.002849938949133328</v>
+      </c>
+      <c r="G55">
+        <v>-0.05152080252240664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1509495133129834</v>
+        <v>-0.1529526556534326</v>
       </c>
       <c r="C56">
-        <v>-0.0859157872963958</v>
+        <v>0.1021062586915712</v>
       </c>
       <c r="D56">
-        <v>-0.05779924834437178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05704051308395022</v>
+      </c>
+      <c r="E56">
+        <v>-0.04009852918266477</v>
+      </c>
+      <c r="F56">
+        <v>0.01663870717646515</v>
+      </c>
+      <c r="G56">
+        <v>-0.02208155802084227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04163672156639047</v>
+        <v>-0.0260251980279029</v>
       </c>
       <c r="C58">
-        <v>-0.02726791056002098</v>
+        <v>0.02285958773952086</v>
       </c>
       <c r="D58">
-        <v>0.5972031066815569</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3618208356288717</v>
+      </c>
+      <c r="E58">
+        <v>-0.6536067717059583</v>
+      </c>
+      <c r="F58">
+        <v>0.3915328560668708</v>
+      </c>
+      <c r="G58">
+        <v>0.4645010495114483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1271702697629057</v>
+        <v>-0.142025573544405</v>
       </c>
       <c r="C59">
-        <v>0.2006781448600108</v>
+        <v>-0.1905404843754175</v>
       </c>
       <c r="D59">
-        <v>0.02339329718639959</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02655876472513412</v>
+      </c>
+      <c r="E59">
+        <v>-0.03098455551857223</v>
+      </c>
+      <c r="F59">
+        <v>-0.03669290790325758</v>
+      </c>
+      <c r="G59">
+        <v>0.007254096939357295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.307857713234241</v>
+        <v>-0.2777558420701325</v>
       </c>
       <c r="C60">
-        <v>-0.1043697870161081</v>
+        <v>0.1053188817275066</v>
       </c>
       <c r="D60">
-        <v>0.1869532174884874</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.26647033651198</v>
+      </c>
+      <c r="E60">
+        <v>0.2368898927138513</v>
+      </c>
+      <c r="F60">
+        <v>0.08131165465637853</v>
+      </c>
+      <c r="G60">
+        <v>-0.02906248837822699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04595150861680104</v>
+        <v>-0.04283938742313985</v>
       </c>
       <c r="C61">
-        <v>-0.06229507499012064</v>
+        <v>0.05841958411286211</v>
       </c>
       <c r="D61">
-        <v>0.01108167438008443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03970809838566688</v>
+      </c>
+      <c r="E61">
+        <v>-0.05141571220326298</v>
+      </c>
+      <c r="F61">
+        <v>-0.05181184718110712</v>
+      </c>
+      <c r="G61">
+        <v>-0.08518200768243103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01733125183189577</v>
+        <v>-0.01586872388160625</v>
       </c>
       <c r="C63">
-        <v>-0.03425864876002366</v>
+        <v>0.03093461722124689</v>
       </c>
       <c r="D63">
-        <v>-0.02147301219391966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01428321994855624</v>
+      </c>
+      <c r="E63">
+        <v>-0.06389179956751405</v>
+      </c>
+      <c r="F63">
+        <v>-0.0306355381241659</v>
+      </c>
+      <c r="G63">
+        <v>-0.07908174192399742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05048108875714968</v>
+        <v>-0.05580644301199977</v>
       </c>
       <c r="C64">
-        <v>-0.05002741291000561</v>
+        <v>0.05836929388508405</v>
       </c>
       <c r="D64">
-        <v>0.007326693395068169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0071760706355896</v>
+      </c>
+      <c r="E64">
+        <v>-0.04092873454520431</v>
+      </c>
+      <c r="F64">
+        <v>-0.04704587442249333</v>
+      </c>
+      <c r="G64">
+        <v>-0.06093591048039387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08105030471532954</v>
+        <v>-0.06559509217563653</v>
       </c>
       <c r="C65">
-        <v>-0.02866733791239862</v>
+        <v>0.02708405422461518</v>
       </c>
       <c r="D65">
-        <v>0.05642811899377398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08464024358295585</v>
+      </c>
+      <c r="E65">
+        <v>-0.05668175610059061</v>
+      </c>
+      <c r="F65">
+        <v>-0.004089128734660536</v>
+      </c>
+      <c r="G65">
+        <v>-0.02367287864813079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06260512240136043</v>
+        <v>-0.05324992266230086</v>
       </c>
       <c r="C66">
-        <v>-0.08694659304472886</v>
+        <v>0.08034261028513746</v>
       </c>
       <c r="D66">
-        <v>0.03730811915806252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07336519387067716</v>
+      </c>
+      <c r="E66">
+        <v>-0.05995169761658427</v>
+      </c>
+      <c r="F66">
+        <v>-0.06102238716774096</v>
+      </c>
+      <c r="G66">
+        <v>-0.08495617519581222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05093353172344803</v>
+        <v>-0.04443135963682225</v>
       </c>
       <c r="C67">
-        <v>-0.03305901322875806</v>
+        <v>0.02932824054979634</v>
       </c>
       <c r="D67">
-        <v>-0.02262377950671956</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004517515339345062</v>
+      </c>
+      <c r="E67">
+        <v>-0.0293875015056522</v>
+      </c>
+      <c r="F67">
+        <v>-0.0267703054761704</v>
+      </c>
+      <c r="G67">
+        <v>-0.0383254996197241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1244249060425097</v>
+        <v>-0.1483853427740363</v>
       </c>
       <c r="C68">
-        <v>0.2826476212163865</v>
+        <v>-0.246174935532625</v>
       </c>
       <c r="D68">
-        <v>-0.008669387221600433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01733609931937657</v>
+      </c>
+      <c r="E68">
+        <v>-0.03709316501760333</v>
+      </c>
+      <c r="F68">
+        <v>-0.003785483539058727</v>
+      </c>
+      <c r="G68">
+        <v>-0.03610425302763016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09218963279531275</v>
+        <v>-0.08751475216609289</v>
       </c>
       <c r="C69">
-        <v>-0.07259147862602536</v>
+        <v>0.08999820630648059</v>
       </c>
       <c r="D69">
-        <v>-0.05056919552364224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01764252315192105</v>
+      </c>
+      <c r="E69">
+        <v>-0.05721889268989926</v>
+      </c>
+      <c r="F69">
+        <v>-0.05126857510494635</v>
+      </c>
+      <c r="G69">
+        <v>-0.08355706325401913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1143119417715837</v>
+        <v>-0.1421803611595156</v>
       </c>
       <c r="C71">
-        <v>0.2579740002194607</v>
+        <v>-0.2436591481532575</v>
       </c>
       <c r="D71">
-        <v>0.01146796186418227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003375623650045586</v>
+      </c>
+      <c r="E71">
+        <v>-0.05732207774343425</v>
+      </c>
+      <c r="F71">
+        <v>-0.01008597537132679</v>
+      </c>
+      <c r="G71">
+        <v>-0.0627153799587795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09518897379436274</v>
+        <v>-0.1017781466456626</v>
       </c>
       <c r="C72">
-        <v>-0.05100104328702276</v>
+        <v>0.05588300838736193</v>
       </c>
       <c r="D72">
-        <v>0.004112211769975945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0283286438259237</v>
+      </c>
+      <c r="E72">
+        <v>-0.02663538986526939</v>
+      </c>
+      <c r="F72">
+        <v>-0.02616784369458951</v>
+      </c>
+      <c r="G72">
+        <v>-0.0802966994952411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4003040331050923</v>
+        <v>-0.338644282794729</v>
       </c>
       <c r="C73">
-        <v>-0.03837796154746724</v>
+        <v>0.06692524075849388</v>
       </c>
       <c r="D73">
-        <v>0.4466115740340281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5301173440975241</v>
+      </c>
+      <c r="E73">
+        <v>0.4342546300081676</v>
+      </c>
+      <c r="F73">
+        <v>0.2324024899778155</v>
+      </c>
+      <c r="G73">
+        <v>0.01182505125630115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1049734069275783</v>
+        <v>-0.1102157670749182</v>
       </c>
       <c r="C74">
-        <v>-0.09389901248067498</v>
+        <v>0.09346602455007565</v>
       </c>
       <c r="D74">
-        <v>-0.04490222995456713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05033347877549996</v>
+      </c>
+      <c r="E74">
+        <v>-0.06132925195537895</v>
+      </c>
+      <c r="F74">
+        <v>0.02081859707264855</v>
+      </c>
+      <c r="G74">
+        <v>-0.05264297732457161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2588841258854521</v>
+        <v>-0.2614385015502899</v>
       </c>
       <c r="C75">
-        <v>-0.09618322118202931</v>
+        <v>0.12684088613428</v>
       </c>
       <c r="D75">
-        <v>-0.1345890962657929</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1503927019297777</v>
+      </c>
+      <c r="E75">
+        <v>-0.02670451420932547</v>
+      </c>
+      <c r="F75">
+        <v>0.06440560623572518</v>
+      </c>
+      <c r="G75">
+        <v>0.0554461407194605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1155404084372022</v>
+        <v>-0.1295869729910719</v>
       </c>
       <c r="C76">
-        <v>-0.08066718078082336</v>
+        <v>0.0918110890604432</v>
       </c>
       <c r="D76">
-        <v>-0.07432421069047987</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08269531030235834</v>
+      </c>
+      <c r="E76">
+        <v>-0.06810191722937391</v>
+      </c>
+      <c r="F76">
+        <v>-0.003697601361476237</v>
+      </c>
+      <c r="G76">
+        <v>-0.03618795804668705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07807007904857066</v>
+        <v>-0.06416146919856293</v>
       </c>
       <c r="C77">
-        <v>-0.05187424430592912</v>
+        <v>0.06164177448465569</v>
       </c>
       <c r="D77">
-        <v>0.0486314258488347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04779191549356667</v>
+      </c>
+      <c r="E77">
+        <v>-0.1011734749508739</v>
+      </c>
+      <c r="F77">
+        <v>-0.1804903389708493</v>
+      </c>
+      <c r="G77">
+        <v>0.07884903623545945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04820416358127239</v>
+        <v>-0.04559772732713698</v>
       </c>
       <c r="C78">
-        <v>-0.04719468932195603</v>
+        <v>0.05617000039658203</v>
       </c>
       <c r="D78">
-        <v>0.02575706494057068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05688089273846144</v>
+      </c>
+      <c r="E78">
+        <v>-0.06082039797081621</v>
+      </c>
+      <c r="F78">
+        <v>-0.05358278400709968</v>
+      </c>
+      <c r="G78">
+        <v>-0.06663046859370088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.03088932877403234</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0451364442871947</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07971129785076314</v>
+      </c>
+      <c r="E79">
+        <v>-0.06019876593201921</v>
+      </c>
+      <c r="F79">
+        <v>0.02706630384008127</v>
+      </c>
+      <c r="G79">
+        <v>-0.03432809715172386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0397641368194931</v>
+        <v>-0.03061642198290545</v>
       </c>
       <c r="C80">
-        <v>-0.04842656154756291</v>
+        <v>0.04948591188081077</v>
       </c>
       <c r="D80">
-        <v>0.03237096374070337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04049468099175512</v>
+      </c>
+      <c r="E80">
+        <v>-0.01923552267386711</v>
+      </c>
+      <c r="F80">
+        <v>-0.05313189277079975</v>
+      </c>
+      <c r="G80">
+        <v>-0.004417596345177156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1415030890312639</v>
+        <v>-0.1416984432035875</v>
       </c>
       <c r="C81">
-        <v>-0.07357803698256676</v>
+        <v>0.09202688578962526</v>
       </c>
       <c r="D81">
-        <v>-0.1068949822025601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1261959204099307</v>
+      </c>
+      <c r="E81">
+        <v>-0.06513317590314664</v>
+      </c>
+      <c r="F81">
+        <v>0.03232332067930797</v>
+      </c>
+      <c r="G81">
+        <v>0.01101889809583243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1834241799830126</v>
+        <v>-0.2193814371108981</v>
       </c>
       <c r="C82">
-        <v>-0.08640595411122522</v>
+        <v>0.1506975788660158</v>
       </c>
       <c r="D82">
-        <v>-0.1852430791235093</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2472702975601626</v>
+      </c>
+      <c r="E82">
+        <v>0.03139077376625081</v>
+      </c>
+      <c r="F82">
+        <v>-0.04382124660322238</v>
+      </c>
+      <c r="G82">
+        <v>-0.05670166415334903</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03941744863215015</v>
+        <v>-0.02705911596015968</v>
       </c>
       <c r="C83">
-        <v>-0.03067848754933793</v>
+        <v>0.04347431250688315</v>
       </c>
       <c r="D83">
-        <v>0.03914410813813056</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03064294979463761</v>
+      </c>
+      <c r="E83">
+        <v>-0.02814779152747503</v>
+      </c>
+      <c r="F83">
+        <v>-0.04244949495448096</v>
+      </c>
+      <c r="G83">
+        <v>-0.01093754507452666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004463003374478068</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001627275244150144</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001899445001305357</v>
+      </c>
+      <c r="E84">
+        <v>-0.002243414172941919</v>
+      </c>
+      <c r="F84">
+        <v>0.0006783611917190438</v>
+      </c>
+      <c r="G84">
+        <v>-0.002829108711785265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2226459922427247</v>
+        <v>-0.2054398423090545</v>
       </c>
       <c r="C85">
-        <v>-0.09654430787831637</v>
+        <v>0.1125481343110986</v>
       </c>
       <c r="D85">
-        <v>-0.1709033170523308</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1285484413978159</v>
+      </c>
+      <c r="E85">
+        <v>0.01573640736698495</v>
+      </c>
+      <c r="F85">
+        <v>0.09964624382147723</v>
+      </c>
+      <c r="G85">
+        <v>0.01532745512533762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007391350029740724</v>
+        <v>-0.01048660618065627</v>
       </c>
       <c r="C86">
-        <v>-0.03009444639472129</v>
+        <v>0.02049597277585331</v>
       </c>
       <c r="D86">
-        <v>0.04530861448054741</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05670671736944204</v>
+      </c>
+      <c r="E86">
+        <v>-0.08167430142858774</v>
+      </c>
+      <c r="F86">
+        <v>-0.08234850346948881</v>
+      </c>
+      <c r="G86">
+        <v>-0.08024012338113866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02445953815232583</v>
+        <v>-0.02537343935796245</v>
       </c>
       <c r="C87">
-        <v>-0.004916446375115497</v>
+        <v>0.01252720471185724</v>
       </c>
       <c r="D87">
-        <v>0.07930804676549776</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07673667372122366</v>
+      </c>
+      <c r="E87">
+        <v>-0.1293593085460769</v>
+      </c>
+      <c r="F87">
+        <v>-0.0751534132868335</v>
+      </c>
+      <c r="G87">
+        <v>-0.02420601253667343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1087037489712579</v>
+        <v>-0.0933640727849786</v>
       </c>
       <c r="C88">
-        <v>-0.07518939533953903</v>
+        <v>0.06292453863256349</v>
       </c>
       <c r="D88">
-        <v>-0.02075264765115329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.009209380269657917</v>
+      </c>
+      <c r="E88">
+        <v>-0.05444343083878283</v>
+      </c>
+      <c r="F88">
+        <v>-0.05670252246895109</v>
+      </c>
+      <c r="G88">
+        <v>-0.04272355655002846</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1770739325303734</v>
+        <v>-0.2146810850850908</v>
       </c>
       <c r="C89">
-        <v>0.3780508487092076</v>
+        <v>-0.3821384549447481</v>
       </c>
       <c r="D89">
-        <v>-0.02542847050028177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02303519780740745</v>
+      </c>
+      <c r="E89">
+        <v>-0.07533114187727467</v>
+      </c>
+      <c r="F89">
+        <v>-0.09926103615382408</v>
+      </c>
+      <c r="G89">
+        <v>-0.002335314795293333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1729460954344829</v>
+        <v>-0.1969723221471418</v>
       </c>
       <c r="C90">
-        <v>0.3378491043006423</v>
+        <v>-0.3136814706106954</v>
       </c>
       <c r="D90">
-        <v>-0.03880662036909106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02495165575725617</v>
+      </c>
+      <c r="E90">
+        <v>-0.05524184282746984</v>
+      </c>
+      <c r="F90">
+        <v>-0.0291329227557178</v>
+      </c>
+      <c r="G90">
+        <v>-0.01894202517189068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1917448469502969</v>
+        <v>-0.1884273891766749</v>
       </c>
       <c r="C91">
-        <v>-0.1260202498619009</v>
+        <v>0.1421311677778667</v>
       </c>
       <c r="D91">
-        <v>-0.1280395776093907</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1299943000300701</v>
+      </c>
+      <c r="E91">
+        <v>-0.04255029229411666</v>
+      </c>
+      <c r="F91">
+        <v>0.0188629485650655</v>
+      </c>
+      <c r="G91">
+        <v>0.006442713851040929</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1582207851569738</v>
+        <v>-0.1784768509653208</v>
       </c>
       <c r="C92">
-        <v>0.2870881810046529</v>
+        <v>-0.2925038040925903</v>
       </c>
       <c r="D92">
-        <v>-0.0227286462708203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02042277006782897</v>
+      </c>
+      <c r="E92">
+        <v>-0.06839064802190281</v>
+      </c>
+      <c r="F92">
+        <v>-0.05836872485703541</v>
+      </c>
+      <c r="G92">
+        <v>-0.03134144984931574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1926303800568409</v>
+        <v>-0.2175757954026424</v>
       </c>
       <c r="C93">
-        <v>0.3397814092924472</v>
+        <v>-0.3212271090052682</v>
       </c>
       <c r="D93">
-        <v>-0.03887585512921102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02030723784371765</v>
+      </c>
+      <c r="E93">
+        <v>-0.04168470837335684</v>
+      </c>
+      <c r="F93">
+        <v>-0.001479554696922162</v>
+      </c>
+      <c r="G93">
+        <v>-0.04124697545855311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3420207521300769</v>
+        <v>-0.3427889799963256</v>
       </c>
       <c r="C94">
-        <v>-0.136152542188714</v>
+        <v>0.1799200877260571</v>
       </c>
       <c r="D94">
-        <v>-0.3737356151899335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4078416096580867</v>
+      </c>
+      <c r="E94">
+        <v>0.01170921610601469</v>
+      </c>
+      <c r="F94">
+        <v>0.1003876213220929</v>
+      </c>
+      <c r="G94">
+        <v>0.3989552638640894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1179304936528069</v>
+        <v>-0.08652458086526654</v>
       </c>
       <c r="C95">
-        <v>-0.06344463232811358</v>
+        <v>0.06084934798312817</v>
       </c>
       <c r="D95">
-        <v>0.2168500846058987</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2010105317156621</v>
+      </c>
+      <c r="E95">
+        <v>0.08722506149079529</v>
+      </c>
+      <c r="F95">
+        <v>-0.744982107432827</v>
+      </c>
+      <c r="G95">
+        <v>0.5288444944331201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1943344642511915</v>
+        <v>-0.187348105770988</v>
       </c>
       <c r="C98">
-        <v>-0.01741947786622222</v>
+        <v>0.04450440829187416</v>
       </c>
       <c r="D98">
-        <v>0.1523284238962989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2020015647973317</v>
+      </c>
+      <c r="E98">
+        <v>0.1270693128409635</v>
+      </c>
+      <c r="F98">
+        <v>0.0840855249258286</v>
+      </c>
+      <c r="G98">
+        <v>-0.07025596948940009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007529559275573839</v>
+        <v>-0.005813636781982078</v>
       </c>
       <c r="C101">
-        <v>-0.03389661032559315</v>
+        <v>0.02877341747287494</v>
       </c>
       <c r="D101">
-        <v>-0.01677181967007348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01419604780332228</v>
+      </c>
+      <c r="E101">
+        <v>-0.04967454808483546</v>
+      </c>
+      <c r="F101">
+        <v>-0.06319654431522201</v>
+      </c>
+      <c r="G101">
+        <v>-0.0912244844298309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.124871255347045</v>
+        <v>-0.1271635297825048</v>
       </c>
       <c r="C102">
-        <v>-0.06767949604360821</v>
+        <v>0.09941031587619999</v>
       </c>
       <c r="D102">
-        <v>-0.04953261782077997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05812110278751431</v>
+      </c>
+      <c r="E102">
+        <v>0.0138585607186005</v>
+      </c>
+      <c r="F102">
+        <v>-0.02181688360196662</v>
+      </c>
+      <c r="G102">
+        <v>0.01152724428147683</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
